--- a/Name And Age.xlsx
+++ b/Name And Age.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -88,14 +88,46 @@
   </si>
   <si>
     <t>Senoir Citizen</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Middle age</t>
+  </si>
+  <si>
+    <t>Above middle age</t>
+  </si>
+  <si>
+    <t>Senior Citizen</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Counts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,8 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,19 +452,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -453,63 +487,111 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(B2:B21, "&lt;18")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(B2:B21, "&gt;=18", B2:B21, "&lt;=25")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS(B2:B21, "&gt;=26", B2:B21, "&lt;=40")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIFS(B2:B21, "&gt;=40", B2:B21, "&lt;=60")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIFS(B2:B21, "&gt;=61", B2:B21, "&lt;=100")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <f>SUM(F4:F8)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -517,7 +599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -525,7 +607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -533,7 +615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -541,7 +623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -549,7 +631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -557,7 +639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -613,6 +695,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
